--- a/Data/governors.xlsx
+++ b/Data/governors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/COVIDBR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A5413E7-CE2B-FE49-9C2F-08EF3251536A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8669FD9A-2022-1E48-9790-767760921707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{90B6F1BF-6051-B446-AA74-9BC02A9A47A7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
   <si>
     <t>uf</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>Ronaldo Caiado</t>
+  </si>
+  <si>
+    <t>votes</t>
+  </si>
+  <si>
+    <t>first_round</t>
   </si>
 </sst>
 </file>
@@ -713,22 +719,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EB5D9D-DC28-FE43-B7A2-C60631710DBF}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -747,8 +750,14 @@
       <c r="F1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -764,8 +773,17 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>53.71</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -781,8 +799,17 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>77.3</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -798,8 +825,17 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>52.35</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -815,8 +851,17 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>58.5</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -835,8 +880,14 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>75.5</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -855,8 +906,14 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>79.959999999999994</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -872,8 +929,17 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>69.790000000000006</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -889,8 +955,17 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>55.49</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -906,8 +981,17 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>59.73</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -926,8 +1010,14 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>59.29</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -946,8 +1036,14 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>58.69</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -966,8 +1062,14 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>52.35</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -986,8 +1088,14 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>71.8</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1003,8 +1111,17 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>55.43</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1020,8 +1137,17 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>58.18</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1040,8 +1166,14 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>59.99</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1057,8 +1189,17 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>50.7</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1077,8 +1218,14 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>55.65</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1097,8 +1244,14 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>59.87</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1117,8 +1270,14 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>57.6</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1137,8 +1296,14 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>53.62</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1157,8 +1322,14 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>66.34</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1348,14 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>53.34</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1197,8 +1374,14 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>71.09</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1217,8 +1400,14 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>51.75</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1237,8 +1426,14 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>64.72</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1257,9 +1452,15 @@
       <c r="F28">
         <v>0</v>
       </c>
+      <c r="G28">
+        <v>57.39</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I28" xr:uid="{77EB5D9D-DC28-FE43-B7A2-C60631710DBF}"/>
+  <autoFilter ref="A1:F28" xr:uid="{77EB5D9D-DC28-FE43-B7A2-C60631710DBF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>